--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\sp9\szkolna-liga-sp9\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B036A-7BFD-4342-A7D4-51EC9D8680CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D05CF-0C6D-48D6-8C1A-905DBDC15179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
   <si>
     <t>Data</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>3-0</t>
-  </si>
-  <si>
-    <t>1-1</t>
   </si>
   <si>
     <t>16:00</t>
@@ -1311,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>33</v>
@@ -1371,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>34</v>
@@ -1391,7 +1388,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>35</v>
@@ -1429,7 +1426,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>37</v>
@@ -1449,7 +1446,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>38</v>
@@ -1469,7 +1466,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
@@ -1489,7 +1486,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>34</v>
@@ -1751,9 +1748,6 @@
       </c>
       <c r="D29" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>51</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6D05CF-0C6D-48D6-8C1A-905DBDC15179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2AEE85-590F-4B6D-8924-9086DC426132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Data</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>16:30</t>
+  </si>
+  <si>
+    <t>6-0</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,6 +1677,9 @@
       <c r="D23" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
@@ -1685,6 +1691,9 @@
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2AEE85-590F-4B6D-8924-9086DC426132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EB882-5F2E-4613-B9DE-5A5A11DEA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
   <si>
     <t>Data</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>6-0</t>
+  </si>
+  <si>
+    <t>04.04.2025</t>
+  </si>
+  <si>
+    <t>1-1</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1318,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1327,7 @@
     <col min="2" max="2" width="8.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
@@ -1497,13 +1503,16 @@
       <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -1597,7 +1606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -1609,7 +1618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -1621,7 +1630,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" s="6"/>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -1633,7 +1645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1645,7 +1657,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
       <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
         <v>41</v>
@@ -1657,7 +1672,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -1669,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -1684,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>39</v>
@@ -1699,7 +1717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
         <v>43</v>
@@ -1711,7 +1729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="3" t="s">
         <v>42</v>
@@ -1723,7 +1741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="3" t="s">
         <v>39</v>
@@ -1735,7 +1753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
@@ -1750,7 +1768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -1762,7 +1780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="3" t="s">
         <v>39</v>
@@ -1774,7 +1792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
@@ -1786,7 +1804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="3" t="s">
         <v>43</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EB882-5F2E-4613-B9DE-5A5A11DEA1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE92EB-6BC6-436C-BB5D-8635FD9D338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>Data</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>1-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-0</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1327,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1521,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
@@ -1520,6 +1529,9 @@
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -1641,6 +1653,9 @@
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
@@ -1668,6 +1683,9 @@
       <c r="D21" s="3">
         <v>8</v>
       </c>
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
@@ -1682,6 +1700,9 @@
       </c>
       <c r="D22" s="3" t="s">
         <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AE92EB-6BC6-436C-BB5D-8635FD9D338F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB0F70-AB9C-43C1-8856-AD3838BFB9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
   <si>
     <t>Data</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>0-0</t>
+  </si>
+  <si>
+    <t>25.04.2025</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1330,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1559,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.61805555555555558</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
@@ -1568,7 +1576,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1607,7 +1620,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
@@ -1751,7 +1769,12 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.59722222222222221</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>42</v>
       </c>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB0F70-AB9C-43C1-8856-AD3838BFB9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B9D68-29BB-4998-9B23-B2ACE1A89D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
   <si>
     <t>Data</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>25.04.2025</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>14:20</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1342,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,8 +1574,8 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="6">
-        <v>0.61805555555555558</v>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1579,8 +1591,8 @@
       <c r="A13" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.64583333333333337</v>
+      <c r="B13" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -1623,8 +1635,8 @@
       <c r="A16" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.63194444444444442</v>
+      <c r="B16" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>40</v>
@@ -1772,8 +1784,8 @@
       <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="6">
-        <v>0.59722222222222221</v>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>42</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B9D68-29BB-4998-9B23-B2ACE1A89D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B907605-1C6D-46C3-A146-23EB1FAAC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>Data</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>14:20</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>16.05.2025</t>
   </si>
 </sst>
 </file>
@@ -889,7 +898,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -908,6 +917,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="60">
     <cellStyle name="20% - Accent1" xfId="12" builtinId="30" customBuiltin="1"/>
@@ -1339,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1366,7 @@
     <col min="10" max="10" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1436,7 +1446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1514,7 +1524,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1534,7 +1544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1552,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1570,7 +1580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1583,11 +1593,14 @@
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="F12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1600,11 +1613,14 @@
       <c r="D13" s="3">
         <v>8</v>
       </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1619,7 +1635,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
       <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>38</v>
@@ -1630,8 +1649,9 @@
       <c r="F15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1644,11 +1664,17 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
       <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
         <v>41</v>
@@ -1660,7 +1686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -1671,8 +1697,9 @@
       <c r="F18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1690,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1702,7 +1729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +1747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1738,7 +1765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -1753,7 +1780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>39</v>
@@ -1768,7 +1795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="3" t="s">
         <v>43</v>
@@ -1780,7 +1807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1793,11 +1820,14 @@
       <c r="D26" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="3" t="s">
         <v>39</v>
@@ -1809,7 +1839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>37</v>
@@ -1824,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -1836,7 +1866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="3" t="s">
         <v>39</v>
@@ -1848,7 +1878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
         <v>37</v>
@@ -1860,7 +1890,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="3" t="s">
         <v>43</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B907605-1C6D-46C3-A146-23EB1FAAC3FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D413E-6CE7-45B3-BE41-B9CD0E8E6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -247,6 +247,15 @@
   </si>
   <si>
     <t>16.05.2025</t>
+  </si>
+  <si>
+    <t>13-0</t>
+  </si>
+  <si>
+    <t>25.05.2025</t>
+  </si>
+  <si>
+    <t>1-4</t>
   </si>
 </sst>
 </file>
@@ -1352,7 +1361,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,6 +1655,9 @@
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
@@ -1681,6 +1693,9 @@
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
@@ -1718,6 +1733,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
       <c r="B20" s="6"/>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1855,6 +1873,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>42</v>
@@ -1874,6 +1895,9 @@
       <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
       <c r="F30" t="s">
         <v>25</v>
       </c>
@@ -1885,6 +1909,9 @@
       </c>
       <c r="D31" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>

--- a/results/liga_szkolna.xlsx
+++ b/results/liga_szkolna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\wyniki\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854D413E-6CE7-45B3-BE41-B9CD0E8E6C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C4DE3A-F811-40B1-B19E-816BC0255806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mecze" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>1-4</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>10-1</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,6 +1718,9 @@
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
@@ -1742,6 +1754,9 @@
       </c>
       <c r="D20" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -1853,6 +1868,9 @@
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="F27" t="s">
         <v>25</v>
       </c>
@@ -1883,6 +1901,9 @@
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="F29" t="s">
         <v>25</v>
       </c>
@@ -1924,6 +1945,9 @@
       </c>
       <c r="D32" s="3" t="s">
         <v>42</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="F32" t="s">
         <v>25</v>
